--- a/Test/Lawnmower/T2/Sensors_data_1000001.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6849413515424854</v>
+        <v>0.7212132943369735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0154752533105356</v>
+        <v>0.01369362469771035</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09548793593203925</v>
+        <v>0.1748587534906991</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9184095212529929</v>
+        <v>0.964154852270419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004062844565441631</v>
+        <v>0.001784929637466099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2469779611701678</v>
+        <v>0.1974220373773728</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,18 +550,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4728134852725246</v>
+        <v>0.973811662122084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01963902176608046</v>
+        <v>0.0009755813611198519</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6332052492242852</v>
+        <v>0.3832925274978936</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.927190906234202</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002581315177479759</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002211247869932209</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
